--- a/Markers/Subject_1_markers.xlsx
+++ b/Markers/Subject_1_markers.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Var1</t>
   </si>
@@ -78,7 +78,13 @@
     <t>HR4_min</t>
   </si>
   <si>
-    <t>VR</t>
+    <t>HR_Max</t>
+  </si>
+  <si>
+    <t>VR1</t>
+  </si>
+  <si>
+    <t>VR2</t>
   </si>
   <si>
     <t>RRb_mean</t>
@@ -105,34 +111,67 @@
     <t>BRSv2eHRTD</t>
   </si>
   <si>
+    <t>R2_BRSv2eHRTD</t>
+  </si>
+  <si>
     <t>BRSv2eRRTD</t>
   </si>
   <si>
+    <t>R2_BRSv2eRRTD</t>
+  </si>
+  <si>
     <t>BRSv2eSPTD</t>
   </si>
   <si>
+    <t>R2_BRSv2eSPTD</t>
+  </si>
+  <si>
     <t>BRSv2eHRSP</t>
   </si>
   <si>
+    <t>R2_BRSv2eHRSP</t>
+  </si>
+  <si>
     <t>BRSv2eRRSP</t>
   </si>
   <si>
+    <t>R2_BRSv2eRRSP</t>
+  </si>
+  <si>
     <t>BRSa2lSPTD</t>
   </si>
   <si>
+    <t>R2_BRSa2lSPTD</t>
+  </si>
+  <si>
     <t>BRSv4eHRTD</t>
   </si>
   <si>
+    <t>R2_BRSv4eHRTD</t>
+  </si>
+  <si>
     <t>BRSv4eRRTD</t>
   </si>
   <si>
+    <t>R2_BRSv4eRRTD</t>
+  </si>
+  <si>
     <t>BRSv4eSPTD</t>
   </si>
   <si>
+    <t>R2_BRSv4eSPTD</t>
+  </si>
+  <si>
     <t>BRSv4eHRSP</t>
   </si>
   <si>
+    <t>R2_BRSv4eHRSP</t>
+  </si>
+  <si>
     <t>BRSv4eRRSP</t>
+  </si>
+  <si>
+    <t>R2_BRSv4eRRSP</t>
   </si>
   <si>
     <t>A</t>
@@ -186,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -225,11 +264,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BP2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="true"/>
@@ -252,41 +288,54 @@
     <col min="18" max="18" width="10.42578125" customWidth="true"/>
     <col min="19" max="19" width="10.140625" customWidth="true"/>
     <col min="20" max="20" width="9" customWidth="true"/>
-    <col min="21" max="21" width="3.5703125" customWidth="true"/>
-    <col min="22" max="22" width="10.5703125" customWidth="true"/>
-    <col min="23" max="23" width="10.42578125" customWidth="true"/>
-    <col min="24" max="24" width="10.28515625" customWidth="true"/>
-    <col min="25" max="25" width="10" customWidth="true"/>
-    <col min="26" max="26" width="10" customWidth="true"/>
-    <col min="27" max="27" width="10.28515625" customWidth="true"/>
-    <col min="28" max="28" width="9.140625" customWidth="true"/>
-    <col min="29" max="29" width="12.28515625" customWidth="true"/>
-    <col min="30" max="30" width="12.140625" customWidth="true"/>
-    <col min="31" max="31" width="12" customWidth="true"/>
-    <col min="32" max="32" width="12.140625" customWidth="true"/>
-    <col min="33" max="33" width="12" customWidth="true"/>
-    <col min="34" max="34" width="11.42578125" customWidth="true"/>
-    <col min="35" max="35" width="12.28515625" customWidth="true"/>
-    <col min="36" max="36" width="12.140625" customWidth="true"/>
-    <col min="37" max="37" width="12" customWidth="true"/>
-    <col min="38" max="38" width="12.140625" customWidth="true"/>
+    <col min="21" max="21" width="8.28515625" customWidth="true"/>
+    <col min="22" max="22" width="4.5703125" customWidth="true"/>
+    <col min="23" max="23" width="4.5703125" customWidth="true"/>
+    <col min="24" max="24" width="10.5703125" customWidth="true"/>
+    <col min="25" max="25" width="10.42578125" customWidth="true"/>
+    <col min="26" max="26" width="10.28515625" customWidth="true"/>
+    <col min="27" max="27" width="10" customWidth="true"/>
+    <col min="28" max="28" width="10" customWidth="true"/>
+    <col min="29" max="29" width="10.28515625" customWidth="true"/>
+    <col min="30" max="30" width="9.140625" customWidth="true"/>
+    <col min="31" max="31" width="12.28515625" customWidth="true"/>
+    <col min="32" max="32" width="15.42578125" customWidth="true"/>
+    <col min="33" max="33" width="12.140625" customWidth="true"/>
+    <col min="34" max="34" width="15.28515625" customWidth="true"/>
+    <col min="35" max="35" width="12" customWidth="true"/>
+    <col min="36" max="36" width="15.140625" customWidth="true"/>
+    <col min="37" max="37" width="12.140625" customWidth="true"/>
+    <col min="38" max="38" width="15.28515625" customWidth="true"/>
     <col min="39" max="39" width="12" customWidth="true"/>
-    <col min="40" max="40" width="2.42578125" customWidth="true"/>
-    <col min="41" max="41" width="2.28515625" customWidth="true"/>
-    <col min="42" max="42" width="2.28515625" customWidth="true"/>
-    <col min="43" max="43" width="2.42578125" customWidth="true"/>
-    <col min="44" max="44" width="2.140625" customWidth="true"/>
-    <col min="45" max="45" width="5.42578125" customWidth="true"/>
-    <col min="46" max="46" width="6.42578125" customWidth="true"/>
-    <col min="47" max="47" width="11.28515625" customWidth="true"/>
-    <col min="48" max="48" width="10.42578125" customWidth="true"/>
-    <col min="49" max="49" width="6" customWidth="true"/>
-    <col min="50" max="50" width="5.140625" customWidth="true"/>
-    <col min="51" max="51" width="11.140625" customWidth="true"/>
-    <col min="52" max="52" width="10.28515625" customWidth="true"/>
-    <col min="53" max="53" width="10.5703125" customWidth="true"/>
-    <col min="54" max="54" width="5.42578125" customWidth="true"/>
-    <col min="55" max="55" width="6.42578125" customWidth="true"/>
+    <col min="40" max="40" width="15.140625" customWidth="true"/>
+    <col min="41" max="41" width="11.42578125" customWidth="true"/>
+    <col min="42" max="42" width="14.5703125" customWidth="true"/>
+    <col min="43" max="43" width="12.28515625" customWidth="true"/>
+    <col min="44" max="44" width="15.42578125" customWidth="true"/>
+    <col min="45" max="45" width="12.140625" customWidth="true"/>
+    <col min="46" max="46" width="15.28515625" customWidth="true"/>
+    <col min="47" max="47" width="12" customWidth="true"/>
+    <col min="48" max="48" width="15.140625" customWidth="true"/>
+    <col min="49" max="49" width="12.140625" customWidth="true"/>
+    <col min="50" max="50" width="15.28515625" customWidth="true"/>
+    <col min="51" max="51" width="12" customWidth="true"/>
+    <col min="52" max="52" width="15.140625" customWidth="true"/>
+    <col min="53" max="53" width="2.42578125" customWidth="true"/>
+    <col min="54" max="54" width="2.28515625" customWidth="true"/>
+    <col min="55" max="55" width="2.28515625" customWidth="true"/>
+    <col min="56" max="56" width="2.42578125" customWidth="true"/>
+    <col min="57" max="57" width="2.140625" customWidth="true"/>
+    <col min="58" max="58" width="5.42578125" customWidth="true"/>
+    <col min="59" max="59" width="6.42578125" customWidth="true"/>
+    <col min="60" max="60" width="11.28515625" customWidth="true"/>
+    <col min="61" max="61" width="10.42578125" customWidth="true"/>
+    <col min="62" max="62" width="6" customWidth="true"/>
+    <col min="63" max="63" width="5.140625" customWidth="true"/>
+    <col min="64" max="64" width="11.140625" customWidth="true"/>
+    <col min="65" max="65" width="10.28515625" customWidth="true"/>
+    <col min="66" max="66" width="10.5703125" customWidth="true"/>
+    <col min="67" max="67" width="5.42578125" customWidth="true"/>
+    <col min="68" max="68" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -455,19 +504,58 @@
       <c r="BC1" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="BD1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>2.8000000000000007</v>
+        <v>2.6000000000000014</v>
       </c>
       <c r="C2" s="0">
-        <v>5.1999999999999993</v>
+        <v>5.1999999999999975</v>
       </c>
       <c r="D2" s="0">
-        <v>11.300000000000001</v>
+        <v>11.300000000000004</v>
       </c>
       <c r="E2" s="0">
         <v>1.2999999999999972</v>
@@ -476,151 +564,190 @@
         <v>1</v>
       </c>
       <c r="G2" s="0">
-        <v>105.52707746891431</v>
+        <v>106.17345476232337</v>
       </c>
       <c r="H2" s="0">
-        <v>119.50913024322662</v>
+        <v>119.76829520812441</v>
       </c>
       <c r="I2" s="0">
-        <v>68.447382108982083</v>
+        <v>68.433783933674249</v>
       </c>
       <c r="J2" s="0">
-        <v>99.788741949209069</v>
+        <v>99.785555523046796</v>
       </c>
       <c r="K2" s="0">
-        <v>99.388518046619112</v>
+        <v>99.284195040118391</v>
       </c>
       <c r="L2" s="0">
-        <v>74.190524817701004</v>
+        <v>74.178824909778541</v>
       </c>
       <c r="M2" s="0">
-        <v>140.60975609756099</v>
+        <v>140.60975609756096</v>
       </c>
       <c r="N2" s="0">
-        <v>90.168969883094732</v>
+        <v>87.96411891723038</v>
       </c>
       <c r="O2" s="0">
-        <v>52.114222165094155</v>
+        <v>51.356340615340521</v>
       </c>
       <c r="P2" s="0">
-        <v>74.098598433568597</v>
+        <v>74.140327865838699</v>
       </c>
       <c r="Q2" s="0">
-        <v>104.48093824955566</v>
+        <v>104.54262063419709</v>
       </c>
       <c r="R2" s="0">
-        <v>133.208041958042</v>
+        <v>134.67657342657344</v>
       </c>
       <c r="S2" s="0">
-        <v>68.59265734265739</v>
+        <v>68.592657342657361</v>
       </c>
       <c r="T2" s="0">
-        <v>40.789622025319133</v>
+        <v>40.788579197824703</v>
       </c>
       <c r="U2" s="0">
-        <v>3.2657336681216722</v>
+        <v>134.52435061989851</v>
       </c>
       <c r="V2" s="0">
-        <v>0.66541738336138023</v>
+        <v>3.3018206585081513</v>
       </c>
       <c r="W2" s="0">
-        <v>1.1513171934126591</v>
+        <v>3.2980886626978378</v>
       </c>
       <c r="X2" s="0">
-        <v>0.80973191488623941</v>
+        <v>0.68209629947475348</v>
       </c>
       <c r="Y2" s="0">
-        <v>0.57426743102831168</v>
+        <v>1.1683075406287331</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.45042325611916778</v>
+        <v>809.27616220653272</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.87472919587103293</v>
+        <v>573.92860094778712</v>
       </c>
       <c r="AB2" s="0">
-        <v>1.4709623924133572</v>
+        <v>445.51178035957679</v>
       </c>
       <c r="AC2" s="0">
-        <v>6.2456373356999464</v>
+        <v>874.72919587103331</v>
       </c>
       <c r="AD2" s="0">
-        <v>-48.538574440008759</v>
+        <v>1470.9999999999966</v>
       </c>
       <c r="AE2" s="0">
-        <v>-10.226466879762112</v>
+        <v>6.2491899886815476</v>
       </c>
       <c r="AF2" s="0">
-        <v>-0.55748110941572981</v>
+        <v>0.99670035961287151</v>
       </c>
       <c r="AG2" s="0">
-        <v>4.4514758022358523</v>
+        <v>-48.490762596464826</v>
       </c>
       <c r="AH2" s="0">
-        <v>3.3107385319844767</v>
+        <v>0.98899643535971915</v>
       </c>
       <c r="AI2" s="0">
-        <v>-65.555999859736886</v>
+        <v>-10.183422893894138</v>
       </c>
       <c r="AJ2" s="0">
-        <v>0.36024864257960565</v>
+        <v>0.91126954647069136</v>
       </c>
       <c r="AK2" s="0">
-        <v>24.698634986456103</v>
+        <v>-0.55910811347111355</v>
       </c>
       <c r="AL2" s="0">
-        <v>-2.9890575667786714</v>
+        <v>0.9079239014293693</v>
       </c>
       <c r="AM2" s="0">
-        <v>16.463935908574555</v>
+        <v>4.4591120532952324</v>
       </c>
       <c r="AN2" s="0">
-        <v>-37.079695359932231</v>
+        <v>0.95173090383434988</v>
       </c>
       <c r="AO2" s="0">
-        <v>-25.197993228918108</v>
+        <v>3.3116017471065144</v>
       </c>
       <c r="AP2" s="0">
-        <v>30.941135937637029</v>
+        <v>0.98485773910417751</v>
       </c>
       <c r="AQ2" s="0">
-        <v>31.33655265121331</v>
+        <v>-87.643001924327436</v>
       </c>
       <c r="AR2" s="0">
-        <v>35.082678628646676</v>
+        <v>0.92272272397380195</v>
       </c>
       <c r="AS2" s="0">
-        <v>25.197993228918108</v>
+        <v>511.12824459399485</v>
       </c>
       <c r="AT2" s="0">
-        <v>55.978190281620812</v>
+        <v>0.85508285118565008</v>
       </c>
       <c r="AU2" s="0">
-        <v>2.7381536227997367</v>
+        <v>25.67321372693884</v>
       </c>
       <c r="AV2" s="0">
-        <v>31.33655265121331</v>
+        <v>0.98142924898858108</v>
       </c>
       <c r="AW2" s="0">
-        <v>73.193194510273543</v>
+        <v>-4.0557656914351696</v>
       </c>
       <c r="AX2" s="0">
-        <v>88.354159594592602</v>
+        <v>0.93192449338569505</v>
       </c>
       <c r="AY2" s="0">
-        <v>196.67442249253793</v>
+        <v>23.762742432444526</v>
       </c>
       <c r="AZ2" s="0">
-        <v>17.401450150567257</v>
+        <v>0.87164539884357051</v>
       </c>
       <c r="BA2" s="0">
-        <v>3422.4201588955025</v>
+        <v>-37.739670828649125</v>
       </c>
       <c r="BB2" s="0">
-        <v>0.11216825712343181</v>
+        <v>-25.10537013033985</v>
       </c>
       <c r="BC2" s="0">
-        <v>0.24918555949158919</v>
+        <v>30.850411106444142</v>
+      </c>
+      <c r="BD2" s="0">
+        <v>31.994629852544833</v>
+      </c>
+      <c r="BE2" s="0">
+        <v>34.436301335237587</v>
+      </c>
+      <c r="BF2" s="0">
+        <v>25.10537013033985</v>
+      </c>
+      <c r="BG2" s="0">
+        <v>56.568698426404012</v>
+      </c>
+      <c r="BH2" s="0">
+        <v>2.7301248766764719</v>
+      </c>
+      <c r="BI2" s="0">
+        <v>31.994629852544833</v>
+      </c>
+      <c r="BJ2" s="0">
+        <v>73.197328513418512</v>
+      </c>
+      <c r="BK2" s="0">
+        <v>88.363549648812253</v>
+      </c>
+      <c r="BL2" s="0">
+        <v>196.7257017868624</v>
+      </c>
+      <c r="BM2" s="0">
+        <v>17.501355549123332</v>
+      </c>
+      <c r="BN2" s="0">
+        <v>3442.9664526226861</v>
+      </c>
+      <c r="BO2" s="0">
+        <v>0.11194765855063651</v>
+      </c>
+      <c r="BP2" s="0">
+        <v>0.25224616499240116</v>
       </c>
     </row>
   </sheetData>
